--- a/EDA_DF/Bundesliga_Rank_ML.xlsx
+++ b/EDA_DF/Bundesliga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.021419369189815</v>
+        <v>4.041925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>39.02141936918981</v>
+        <v>39.04192545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>53.02141936918981</v>
+        <v>53.04192545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>74.02141936918981</v>
+        <v>74.04192545652778</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>107.9797527025231</v>
+        <v>108.0002587898611</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>115.1464193691898</v>
+        <v>115.1669254565278</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.0214193691898</v>
+        <v>116.0419254565278</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>122.0630860358565</v>
+        <v>122.0835921231944</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>151.0214193691898</v>
+        <v>151.0419254565278</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>186.0630860358565</v>
+        <v>186.0835921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>200.9797527025232</v>
+        <v>201.0002587898611</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>221.9797527025232</v>
+        <v>222.0002587898611</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>319.0630860358565</v>
+        <v>319.0835921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>325.1880860358565</v>
+        <v>325.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>346.1047527025232</v>
+        <v>346.1252587898611</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.021419369189815</v>
+        <v>4.041925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>39.02141936918981</v>
+        <v>39.04192545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>53.02141936918981</v>
+        <v>53.04192545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>74.02141936918981</v>
+        <v>74.04192545652778</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>107.9797527025231</v>
+        <v>108.0002587898611</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>115.1464193691898</v>
+        <v>115.1669254565278</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.0214193691898</v>
+        <v>116.0419254565278</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>122.0630860358565</v>
+        <v>122.0835921231944</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>151.0214193691898</v>
+        <v>151.0419254565278</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>186.0630860358565</v>
+        <v>186.0835921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>200.9797527025232</v>
+        <v>201.0002587898611</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>221.9797527025232</v>
+        <v>222.0002587898611</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>319.0630860358565</v>
+        <v>319.0835921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>325.1880860358565</v>
+        <v>325.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>346.1047527025232</v>
+        <v>346.1252587898611</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.063086035856481</v>
+        <v>3.083592123194444</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.06308603585648</v>
+        <v>17.08359212319445</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>23.97975270252315</v>
+        <v>24.00025878986111</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.06308603585648</v>
+        <v>38.08359212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.93808603585648</v>
+        <v>53.95859212319444</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>73.14641936918981</v>
+        <v>73.16692545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.93808603585649</v>
+        <v>81.95859212319444</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>108.0630860358565</v>
+        <v>108.0835921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>109.0214193691898</v>
+        <v>109.0419254565278</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>123.0214193691898</v>
+        <v>123.0419254565278</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>123.1464193691898</v>
+        <v>123.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>142.9380860358565</v>
+        <v>142.9585921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>157.0630860358565</v>
+        <v>157.0835921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.0630860358565</v>
+        <v>158.0835921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.9797527025231</v>
+        <v>166.0002587898611</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>178.1047527025231</v>
+        <v>178.1252587898611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>178.1880860358565</v>
+        <v>178.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.1880860358565</v>
+        <v>192.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>214.9797527025232</v>
+        <v>215.0002587898611</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.1047527025232</v>
+        <v>220.1252587898611</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>228.0630860358565</v>
+        <v>228.0835921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>325.1047527025232</v>
+        <v>325.1252587898611</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>332.1047527025232</v>
+        <v>332.1252587898611</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>333.9797527025232</v>
+        <v>334.0002587898611</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>347.0630860358565</v>
+        <v>347.0835921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.93808603585648</v>
+        <v>25.95859212319444</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.93808603585648</v>
+        <v>39.95859212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9660,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.02141936918981</v>
+        <v>46.04192545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.14641936918981</v>
+        <v>52.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.06308603585648</v>
+        <v>59.08359212319444</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.06308603585649</v>
+        <v>66.08359212319444</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.02141936918981</v>
+        <v>67.04192545652778</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>69.97975270252314</v>
+        <v>70.00025878986111</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>105.9380860358565</v>
+        <v>105.9585921231944</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>143.1464193691898</v>
+        <v>143.1669254565278</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>193.9797527025231</v>
+        <v>194.0002587898611</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>318.0214193691899</v>
+        <v>318.0419254565278</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>326.0630860358565</v>
+        <v>326.0835921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>339.1880860358565</v>
+        <v>339.2085921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.14641936918981</v>
+        <v>17.16692545652778</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.02141936918981</v>
+        <v>32.04192545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.93808603585648</v>
+        <v>32.95859212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45.06308603585648</v>
+        <v>45.08359212319444</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.93808603585648</v>
+        <v>60.95859212319444</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>80.06308603585649</v>
+        <v>80.08359212319444</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>130.0214193691898</v>
+        <v>130.0419254565278</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>150.0630860358565</v>
+        <v>150.0835921231944</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>157.1464193691898</v>
+        <v>157.1669254565278</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>213.1047527025232</v>
+        <v>213.1252587898611</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.0630860358565</v>
+        <v>214.0835921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.0630860358565</v>
+        <v>221.0835921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>318.1047527025232</v>
+        <v>318.1252587898611</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.9797527025232</v>
+        <v>341.0002587898611</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.9797527025232</v>
+        <v>348.0002587898611</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>353.0214193691899</v>
+        <v>353.0419254565278</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.146419369189815</v>
+        <v>3.166925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.06308603585648</v>
+        <v>24.08359212319445</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.14641936918981</v>
+        <v>24.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -17006,7 +17006,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -17315,7 +17315,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>37.97975270252315</v>
+        <v>38.00025878986111</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>38.14641936918981</v>
+        <v>38.16692545652778</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>45.14641936918981</v>
+        <v>45.16692545652778</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>59.14641936918981</v>
+        <v>59.16692545652778</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>73.06308603585649</v>
+        <v>73.08359212319444</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>80.14641936918981</v>
+        <v>80.16692545652778</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>105.0214193691898</v>
+        <v>105.0419254565278</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.1464193691898</v>
+        <v>108.1669254565278</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.9380860358565</v>
+        <v>109.9585921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>121.9797527025231</v>
+        <v>122.0002587898611</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>123.1464193691898</v>
+        <v>123.1669254565278</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>123.1464193691898</v>
+        <v>123.1669254565278</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.0214193691898</v>
+        <v>144.0419254565278</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>144.9380860358565</v>
+        <v>144.9585921231944</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>150.1464193691898</v>
+        <v>150.1669254565278</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>164.1047527025231</v>
+        <v>164.1252587898611</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>178.0214193691898</v>
+        <v>178.0419254565278</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>185.1047527025231</v>
+        <v>185.1252587898611</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>192.1047527025231</v>
+        <v>192.1252587898611</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>199.1880860358565</v>
+        <v>199.2085921231944</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>200.0630860358565</v>
+        <v>200.0835921231944</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>213.1880860358565</v>
+        <v>213.2085921231944</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>319.9797527025232</v>
+        <v>320.0002587898611</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.979752702523148</v>
+        <v>3.000258789861111</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -22636,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -22842,7 +22842,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -23048,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -23151,7 +23151,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.14641936918981</v>
+        <v>66.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -23254,7 +23254,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.93808603585649</v>
+        <v>67.95859212319444</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -23563,7 +23563,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -23769,7 +23769,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>129.1464193691898</v>
+        <v>129.1669254565278</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.9797527025231</v>
+        <v>159.0002587898611</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -24284,7 +24284,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>179.9797527025231</v>
+        <v>180.0002587898611</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -24799,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -24902,7 +24902,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>227.1047527025232</v>
+        <v>227.1252587898611</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.1880860358565</v>
+        <v>227.2085921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -25623,7 +25623,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -25829,7 +25829,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>339.1047527025232</v>
+        <v>339.1252587898611</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>346.0214193691899</v>
+        <v>346.0419254565278</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>346.1880860358565</v>
+        <v>346.2085921231944</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>353.1047527025232</v>
+        <v>353.1252587898611</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.0630860358565</v>
+        <v>354.0835921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.02141936918981</v>
+        <v>18.04192545652778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -26618,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.93808603585648</v>
+        <v>18.95859212319445</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -26824,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.02141936918981</v>
+        <v>25.04192545652777</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -26927,7 +26927,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.14641936918981</v>
+        <v>31.16692545652777</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -27133,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -27236,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -27339,7 +27339,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.02141936918981</v>
+        <v>81.04192545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>106.0214193691898</v>
+        <v>106.0419254565278</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -27648,7 +27648,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>130.9380860358565</v>
+        <v>130.9585921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -27854,7 +27854,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -27957,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>165.0630860358565</v>
+        <v>165.0835921231944</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -28163,7 +28163,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>186.9797527025231</v>
+        <v>187.0002587898611</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>228.9797527025232</v>
+        <v>229.0002587898611</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>318.1880860358565</v>
+        <v>318.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -28884,7 +28884,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.0630860358565</v>
+        <v>333.0835921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -28987,7 +28987,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -29090,7 +29090,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -29364,7 +29364,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -29467,7 +29467,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.06308603585648</v>
+        <v>31.08359212319444</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -29570,7 +29570,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.93808603585648</v>
+        <v>46.95859212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.06308603585648</v>
+        <v>52.08359212319444</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -29982,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -30085,7 +30085,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.02141936918981</v>
+        <v>60.04192545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -30394,7 +30394,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -30497,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -30600,7 +30600,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -30806,7 +30806,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -30909,7 +30909,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -31012,7 +31012,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -31115,7 +31115,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1464193691898</v>
+        <v>122.1669254565278</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -31218,7 +31218,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>123.9797527025231</v>
+        <v>124.0002587898611</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>143.0630860358565</v>
+        <v>143.0835921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -31424,7 +31424,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -31527,7 +31527,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -31630,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.0630860358565</v>
+        <v>179.0835921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -31733,7 +31733,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.1880860358565</v>
+        <v>185.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -31836,7 +31836,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.0630860358565</v>
+        <v>193.0835921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -31939,7 +31939,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -32042,7 +32042,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.1880860358565</v>
+        <v>220.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -32351,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -32454,7 +32454,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -32660,7 +32660,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -32763,7 +32763,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.0630860358565</v>
+        <v>340.0835921231944</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -32866,7 +32866,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -32969,7 +32969,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -33072,7 +33072,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -33175,7 +33175,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>353.1880860358565</v>
+        <v>353.2085921231944</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -33449,7 +33449,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -33552,7 +33552,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -33861,7 +33861,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>56.02141936918981</v>
+        <v>56.04192545652778</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>105.9380860358565</v>
+        <v>105.9585921231944</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -34067,7 +34067,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>115.0630860358565</v>
+        <v>115.0835921231944</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34170,7 +34170,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.9380860358565</v>
+        <v>116.9585921231944</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -34273,7 +34273,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>129.0630860358565</v>
+        <v>129.0835921231944</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -34376,7 +34376,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -34479,7 +34479,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>151.9380860358565</v>
+        <v>151.9585921231944</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -34582,7 +34582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -34685,7 +34685,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>164.1880860358565</v>
+        <v>164.2085921231944</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34788,7 +34788,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>199.1047527025232</v>
+        <v>199.1252587898611</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34891,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34994,7 +34994,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35097,7 +35097,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>326.9797527025232</v>
+        <v>327.0002587898611</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>333.9797527025232</v>
+        <v>334.0002587898611</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -35612,7 +35612,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>354.9797527025232</v>
+        <v>355.0002587898611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>17.14641936918981</v>
+        <v>17.16692545652778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35989,7 +35989,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.02141936918981</v>
+        <v>32.04192545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36092,7 +36092,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -36195,7 +36195,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36298,7 +36298,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.93808603585648</v>
+        <v>32.95859212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -36401,7 +36401,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>45.06308603585648</v>
+        <v>45.08359212319444</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -36504,7 +36504,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36710,7 +36710,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -36813,7 +36813,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>60.93808603585648</v>
+        <v>60.95859212319444</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -37019,7 +37019,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37122,7 +37122,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37225,7 +37225,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>80.06308603585649</v>
+        <v>80.08359212319444</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -37328,7 +37328,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -37431,7 +37431,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -37534,7 +37534,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -37740,7 +37740,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>130.0214193691898</v>
+        <v>130.0419254565278</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -37843,7 +37843,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -37946,7 +37946,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>150.0630860358565</v>
+        <v>150.0835921231944</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38049,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>157.1464193691898</v>
+        <v>157.1669254565278</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -38152,7 +38152,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38358,7 +38358,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -38461,7 +38461,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -38564,7 +38564,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>213.1047527025232</v>
+        <v>213.1252587898611</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -38667,7 +38667,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.0630860358565</v>
+        <v>214.0835921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38770,7 +38770,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.0630860358565</v>
+        <v>221.0835921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -38873,7 +38873,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38976,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39079,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>318.1047527025232</v>
+        <v>318.1252587898611</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -39182,7 +39182,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -39285,7 +39285,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39388,7 +39388,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.9797527025232</v>
+        <v>341.0002587898611</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -39491,7 +39491,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.9797527025232</v>
+        <v>348.0002587898611</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>353.0214193691899</v>
+        <v>353.0419254565278</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -39868,7 +39868,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.02141936918981</v>
+        <v>18.04192545652778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -39971,7 +39971,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -40074,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.93808603585648</v>
+        <v>18.95859212319445</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -40177,7 +40177,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.02141936918981</v>
+        <v>25.04192545652777</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -40280,7 +40280,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.14641936918981</v>
+        <v>31.16692545652777</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -40383,7 +40383,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -40486,7 +40486,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -40589,7 +40589,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -40692,7 +40692,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.02141936918981</v>
+        <v>81.04192545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -40795,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>106.0214193691898</v>
+        <v>106.0419254565278</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -40898,7 +40898,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41001,7 +41001,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>130.9380860358565</v>
+        <v>130.9585921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -41104,7 +41104,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -41207,7 +41207,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -41310,7 +41310,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>165.0630860358565</v>
+        <v>165.0835921231944</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -41413,7 +41413,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -41516,7 +41516,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -41619,7 +41619,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -41722,7 +41722,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>186.9797527025231</v>
+        <v>187.0002587898611</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -41825,7 +41825,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -41928,7 +41928,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>228.9797527025232</v>
+        <v>229.0002587898611</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -42031,7 +42031,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>318.1880860358565</v>
+        <v>318.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>333.0630860358565</v>
+        <v>333.0835921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -42340,7 +42340,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -42443,7 +42443,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -42717,7 +42717,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.063086035856481</v>
+        <v>3.083592123194444</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -42820,7 +42820,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42923,7 +42923,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.06308603585648</v>
+        <v>17.08359212319445</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43026,7 +43026,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>23.97975270252315</v>
+        <v>24.00025878986111</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43129,7 +43129,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>38.06308603585648</v>
+        <v>38.08359212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -43232,7 +43232,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -43335,7 +43335,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.93808603585648</v>
+        <v>53.95859212319444</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43438,7 +43438,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>73.14641936918981</v>
+        <v>73.16692545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43541,7 +43541,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43644,7 +43644,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>81.93808603585649</v>
+        <v>81.95859212319444</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43747,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -43850,7 +43850,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>108.0630860358565</v>
+        <v>108.0835921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -43953,7 +43953,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>109.0214193691898</v>
+        <v>109.0419254565278</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -44056,7 +44056,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>123.0214193691898</v>
+        <v>123.0419254565278</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -44159,7 +44159,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>123.1464193691898</v>
+        <v>123.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -44262,7 +44262,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>142.9380860358565</v>
+        <v>142.9585921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44365,7 +44365,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -44468,7 +44468,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>157.0630860358565</v>
+        <v>157.0835921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44571,7 +44571,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>158.0630860358565</v>
+        <v>158.0835921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44674,7 +44674,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44777,7 +44777,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>165.9797527025231</v>
+        <v>166.0002587898611</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44880,7 +44880,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>178.1047527025231</v>
+        <v>178.1252587898611</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44983,7 +44983,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>178.1880860358565</v>
+        <v>178.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -45086,7 +45086,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45189,7 +45189,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>192.1880860358565</v>
+        <v>192.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -45292,7 +45292,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45395,7 +45395,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45498,7 +45498,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -45601,7 +45601,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>214.9797527025232</v>
+        <v>215.0002587898611</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -45704,7 +45704,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>220.1047527025232</v>
+        <v>220.1252587898611</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -45807,7 +45807,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>228.0630860358565</v>
+        <v>228.0835921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -45910,7 +45910,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46013,7 +46013,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>325.1047527025232</v>
+        <v>325.1252587898611</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -46116,7 +46116,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>332.1047527025232</v>
+        <v>332.1252587898611</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -46219,7 +46219,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>333.9797527025232</v>
+        <v>334.0002587898611</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -46322,7 +46322,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -46425,7 +46425,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>347.0630860358565</v>
+        <v>347.0835921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -46528,7 +46528,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -46631,7 +46631,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -46905,7 +46905,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.146419369189815</v>
+        <v>3.166925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -47008,7 +47008,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -47111,7 +47111,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -47214,7 +47214,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -47317,7 +47317,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>24.06308603585648</v>
+        <v>24.08359212319445</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -47420,7 +47420,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>24.14641936918981</v>
+        <v>24.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -47626,7 +47626,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -47729,7 +47729,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -47832,7 +47832,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>37.97975270252315</v>
+        <v>38.00025878986111</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -47935,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>38.14641936918981</v>
+        <v>38.16692545652778</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -48038,7 +48038,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -48141,7 +48141,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>45.14641936918981</v>
+        <v>45.16692545652778</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -48244,7 +48244,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -48347,7 +48347,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>59.14641936918981</v>
+        <v>59.16692545652778</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -48450,7 +48450,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -48553,7 +48553,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -48656,7 +48656,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>73.06308603585649</v>
+        <v>73.08359212319444</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -48759,7 +48759,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -48862,7 +48862,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -48965,7 +48965,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>80.14641936918981</v>
+        <v>80.16692545652778</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -49068,7 +49068,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -49171,7 +49171,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>105.0214193691898</v>
+        <v>105.0419254565278</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -49274,7 +49274,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>108.1464193691898</v>
+        <v>108.1669254565278</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>109.9380860358565</v>
+        <v>109.9585921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -49480,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -49583,7 +49583,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>121.9797527025231</v>
+        <v>122.0002587898611</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -49686,7 +49686,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>123.1464193691898</v>
+        <v>123.1669254565278</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -49789,7 +49789,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>123.1464193691898</v>
+        <v>123.1669254565278</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -49892,7 +49892,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -49995,7 +49995,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>144.0214193691898</v>
+        <v>144.0419254565278</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -50098,7 +50098,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -50201,7 +50201,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>144.9380860358565</v>
+        <v>144.9585921231944</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -50304,7 +50304,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>150.1464193691898</v>
+        <v>150.1669254565278</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -50407,7 +50407,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -50510,7 +50510,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -50613,7 +50613,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -50716,7 +50716,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>164.1047527025231</v>
+        <v>164.1252587898611</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -50819,7 +50819,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>178.0214193691898</v>
+        <v>178.0419254565278</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -50922,7 +50922,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>185.1047527025231</v>
+        <v>185.1252587898611</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -51025,7 +51025,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -51128,7 +51128,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>192.1047527025231</v>
+        <v>192.1252587898611</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -51231,7 +51231,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -51334,7 +51334,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>199.1880860358565</v>
+        <v>199.2085921231944</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -51437,7 +51437,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>200.0630860358565</v>
+        <v>200.0835921231944</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -51540,7 +51540,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>213.1880860358565</v>
+        <v>213.2085921231944</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -51643,7 +51643,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -51746,7 +51746,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -51849,7 +51849,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -51952,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -52055,7 +52055,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -52158,7 +52158,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -52261,7 +52261,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>319.9797527025232</v>
+        <v>320.0002587898611</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -52364,7 +52364,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -52467,7 +52467,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -52570,7 +52570,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -52673,7 +52673,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -52776,7 +52776,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -53050,7 +53050,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53153,7 +53153,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>31.06308603585648</v>
+        <v>31.08359212319444</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -53256,7 +53256,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -53359,7 +53359,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -53462,7 +53462,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.93808603585648</v>
+        <v>46.95859212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -53565,7 +53565,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>52.06308603585648</v>
+        <v>52.08359212319444</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -53668,7 +53668,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -53771,7 +53771,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.02141936918981</v>
+        <v>60.04192545652778</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -53977,7 +53977,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -54080,7 +54080,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.14641936918981</v>
+        <v>67.16692545652778</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54183,7 +54183,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>74.14641936918981</v>
+        <v>74.16692545652778</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54286,7 +54286,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -54389,7 +54389,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -54492,7 +54492,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -54595,7 +54595,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -54698,7 +54698,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -54801,7 +54801,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1464193691898</v>
+        <v>122.1669254565278</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -54904,7 +54904,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>123.9797527025231</v>
+        <v>124.0002587898611</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55007,7 +55007,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>143.0630860358565</v>
+        <v>143.0835921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55110,7 +55110,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -55213,7 +55213,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -55316,7 +55316,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.0630860358565</v>
+        <v>179.0835921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -55419,7 +55419,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>185.1880860358565</v>
+        <v>185.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -55522,7 +55522,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.0630860358565</v>
+        <v>193.0835921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -55625,7 +55625,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -55728,7 +55728,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -55831,7 +55831,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>220.1880860358565</v>
+        <v>220.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -55934,7 +55934,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56037,7 +56037,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56140,7 +56140,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56243,7 +56243,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56346,7 +56346,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -56449,7 +56449,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>340.0630860358565</v>
+        <v>340.0835921231944</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -56552,7 +56552,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -56655,7 +56655,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -56758,7 +56758,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>347.1880860358565</v>
+        <v>347.2085921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -56861,7 +56861,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>353.1880860358565</v>
+        <v>353.2085921231944</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57135,7 +57135,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -57238,7 +57238,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -57341,7 +57341,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.14641936918981</v>
+        <v>25.16692545652777</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57444,7 +57444,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.93808603585648</v>
+        <v>25.95859212319444</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57547,7 +57547,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.93808603585648</v>
+        <v>39.95859212319444</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -57650,7 +57650,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.02141936918981</v>
+        <v>46.04192545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57753,7 +57753,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>52.14641936918981</v>
+        <v>52.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -57856,7 +57856,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.06308603585648</v>
+        <v>59.08359212319444</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -57959,7 +57959,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.14641936918981</v>
+        <v>60.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -58062,7 +58062,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>66.06308603585649</v>
+        <v>66.08359212319444</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -58165,7 +58165,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>67.02141936918981</v>
+        <v>67.04192545652778</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58268,7 +58268,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>69.97975270252314</v>
+        <v>70.00025878986111</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58474,7 +58474,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>105.9380860358565</v>
+        <v>105.9585921231944</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58577,7 +58577,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -58680,7 +58680,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>143.1464193691898</v>
+        <v>143.1669254565278</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58783,7 +58783,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58886,7 +58886,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58989,7 +58989,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -59092,7 +59092,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -59195,7 +59195,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>193.9797527025231</v>
+        <v>194.0002587898611</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -59298,7 +59298,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59401,7 +59401,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59504,7 +59504,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59607,7 +59607,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -59710,7 +59710,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>318.0214193691899</v>
+        <v>318.0419254565278</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -59813,7 +59813,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>326.0630860358565</v>
+        <v>326.0835921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -59916,7 +59916,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -60019,7 +60019,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>339.1880860358565</v>
+        <v>339.2085921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -60122,7 +60122,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>340.1880860358565</v>
+        <v>340.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.979752702523148</v>
+        <v>3.000258789861111</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -60499,7 +60499,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.146419369189815</v>
+        <v>4.166925456527778</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -60602,7 +60602,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -60705,7 +60705,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -60808,7 +60808,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -60911,7 +60911,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.14641936918981</v>
+        <v>53.16692545652778</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -61014,7 +61014,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>66.14641936918981</v>
+        <v>66.16692545652778</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -61117,7 +61117,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>67.93808603585649</v>
+        <v>67.95859212319444</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -61220,7 +61220,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>81.14641936918981</v>
+        <v>81.16692545652778</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -61323,7 +61323,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>104.9380860358565</v>
+        <v>104.9585921231944</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -61426,7 +61426,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>109.1464193691898</v>
+        <v>109.1669254565278</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -61529,7 +61529,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -61632,7 +61632,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>116.1464193691898</v>
+        <v>116.1669254565278</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -61735,7 +61735,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>129.1464193691898</v>
+        <v>129.1669254565278</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -61838,7 +61838,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>130.1464193691898</v>
+        <v>130.1669254565278</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -61941,7 +61941,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>151.1464193691898</v>
+        <v>151.1669254565278</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -62044,7 +62044,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>158.9797527025231</v>
+        <v>159.0002587898611</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -62147,7 +62147,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>165.1880860358565</v>
+        <v>165.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -62250,7 +62250,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>179.1880860358565</v>
+        <v>179.2085921231944</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -62353,7 +62353,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>179.9797527025231</v>
+        <v>180.0002587898611</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -62456,7 +62456,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -62559,7 +62559,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>186.1880860358565</v>
+        <v>186.2085921231944</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -62662,7 +62662,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>193.1880860358565</v>
+        <v>193.2085921231944</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -62765,7 +62765,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>200.1880860358565</v>
+        <v>200.2085921231944</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -62868,7 +62868,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -62971,7 +62971,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>227.1047527025232</v>
+        <v>227.1252587898611</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -63074,7 +63074,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>227.1880860358565</v>
+        <v>227.2085921231944</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -63177,7 +63177,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>228.1880860358565</v>
+        <v>228.2085921231944</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -63280,7 +63280,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>312.1880860358565</v>
+        <v>312.2085921231944</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -63383,7 +63383,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>326.1880860358565</v>
+        <v>326.2085921231944</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -63486,7 +63486,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -63589,7 +63589,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>333.1880860358565</v>
+        <v>333.2085921231944</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -63692,7 +63692,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>339.1047527025232</v>
+        <v>339.1252587898611</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -63795,7 +63795,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>346.0214193691899</v>
+        <v>346.0419254565278</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -63898,7 +63898,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>346.1880860358565</v>
+        <v>346.2085921231944</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -64001,7 +64001,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>353.1047527025232</v>
+        <v>353.1252587898611</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -64104,7 +64104,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.0630860358565</v>
+        <v>354.0835921231944</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -64378,7 +64378,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.14641936918981</v>
+        <v>18.16692545652778</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -64481,7 +64481,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.14641936918981</v>
+        <v>32.16692545652778</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -64584,7 +64584,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.14641936918981</v>
+        <v>39.16692545652778</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -64687,7 +64687,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>46.14641936918981</v>
+        <v>46.16692545652778</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -64790,7 +64790,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>56.02141936918981</v>
+        <v>56.04192545652778</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -64893,7 +64893,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>105.9380860358565</v>
+        <v>105.9585921231944</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -64996,7 +64996,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>115.0630860358565</v>
+        <v>115.0835921231944</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -65099,7 +65099,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.9380860358565</v>
+        <v>116.9585921231944</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -65202,7 +65202,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>129.0630860358565</v>
+        <v>129.0835921231944</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -65305,7 +65305,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>144.1464193691898</v>
+        <v>144.1669254565278</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -65408,7 +65408,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>151.9380860358565</v>
+        <v>151.9585921231944</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -65511,7 +65511,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>158.1880860358565</v>
+        <v>158.2085921231944</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -65614,7 +65614,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>164.1880860358565</v>
+        <v>164.2085921231944</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -65717,7 +65717,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>199.1047527025232</v>
+        <v>199.1252587898611</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -65820,7 +65820,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>214.1880860358565</v>
+        <v>214.2085921231944</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -65923,7 +65923,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>221.1880860358565</v>
+        <v>221.2085921231944</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -66026,7 +66026,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -66129,7 +66129,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>319.1880860358565</v>
+        <v>319.2085921231944</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -66232,7 +66232,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>326.9797527025232</v>
+        <v>327.0002587898611</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -66335,7 +66335,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>333.9797527025232</v>
+        <v>334.0002587898611</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -66438,7 +66438,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>354.1880860358565</v>
+        <v>354.2085921231944</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -66541,7 +66541,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>354.9797527025232</v>
+        <v>355.0002587898611</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>

--- a/EDA_DF/Bundesliga_Rank_ML.xlsx
+++ b/EDA_DF/Bundesliga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.077328462152778</v>
+        <v>5.559699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.07732846215278</v>
+        <v>40.55969907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>54.07732846215278</v>
+        <v>54.55969907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>75.07732846215278</v>
+        <v>75.55969907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>109.0356617954861</v>
+        <v>109.5180324074421</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.2023284621528</v>
+        <v>116.6846990741088</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.0773284621528</v>
+        <v>117.5596990741088</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.1189951288194</v>
+        <v>123.6013657407755</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>152.0773284621528</v>
+        <v>152.5596990741088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>187.1189951288194</v>
+        <v>187.6013657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>202.0356617954861</v>
+        <v>202.5180324074421</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>223.0356617954861</v>
+        <v>223.5180324074421</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>320.1189951288194</v>
+        <v>320.6013657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>326.2439951288194</v>
+        <v>326.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>347.1606617954861</v>
+        <v>347.6430324074421</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.077328462152778</v>
+        <v>5.559699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.07732846215278</v>
+        <v>40.55969907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>54.07732846215278</v>
+        <v>54.55969907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>75.07732846215278</v>
+        <v>75.55969907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>109.0356617954861</v>
+        <v>109.5180324074421</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.2023284621528</v>
+        <v>116.6846990741088</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.0773284621528</v>
+        <v>117.5596990741088</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.1189951288194</v>
+        <v>123.6013657407755</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>152.0773284621528</v>
+        <v>152.5596990741088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>187.1189951288194</v>
+        <v>187.6013657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>202.0356617954861</v>
+        <v>202.5180324074421</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>223.0356617954861</v>
+        <v>223.5180324074421</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>320.1189951288194</v>
+        <v>320.6013657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>326.2439951288194</v>
+        <v>326.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>347.1606617954861</v>
+        <v>347.6430324074421</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.118995128819445</v>
+        <v>4.601365740775464</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.11899512881945</v>
+        <v>18.60136574077546</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.03566179548611</v>
+        <v>25.51803240744213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.11899512881944</v>
+        <v>39.60136574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.99399512881944</v>
+        <v>55.47636574077546</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>74.20232846215278</v>
+        <v>74.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>82.99399512881945</v>
+        <v>83.47636574077546</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.1189951288194</v>
+        <v>109.6013657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>110.0773284621528</v>
+        <v>110.5596990741088</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>124.0773284621528</v>
+        <v>124.5596990741088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>124.2023284621528</v>
+        <v>124.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>143.9939951288194</v>
+        <v>144.4763657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>158.1189951288194</v>
+        <v>158.6013657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.1189951288194</v>
+        <v>159.6013657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>167.0356617954861</v>
+        <v>167.5180324074421</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.1606617954861</v>
+        <v>179.6430324074421</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.2439951288194</v>
+        <v>179.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.2439951288194</v>
+        <v>193.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.0356617954861</v>
+        <v>216.5180324074421</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.1606617954861</v>
+        <v>221.6430324074421</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>229.1189951288194</v>
+        <v>229.6013657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.1606617954861</v>
+        <v>326.6430324074421</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.1606617954861</v>
+        <v>333.6430324074421</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.0356617954861</v>
+        <v>335.5180324074421</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.1189951288194</v>
+        <v>348.6013657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.99399512881945</v>
+        <v>27.47636574077546</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>40.99399512881944</v>
+        <v>41.47636574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9660,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.07732846215278</v>
+        <v>47.55969907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.20232846215278</v>
+        <v>53.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.11899512881944</v>
+        <v>60.60136574077546</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.11899512881945</v>
+        <v>67.60136574077546</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.07732846215278</v>
+        <v>68.55969907410879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.03566179548611</v>
+        <v>71.51803240744212</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>106.9939951288194</v>
+        <v>107.4763657407755</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.2023284621528</v>
+        <v>144.6846990741088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>195.0356617954861</v>
+        <v>195.5180324074421</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>319.0773284621528</v>
+        <v>319.5596990741088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>327.1189951288194</v>
+        <v>327.6013657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>340.2439951288194</v>
+        <v>340.7263657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.20232846215278</v>
+        <v>18.6846990741088</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.07732846215278</v>
+        <v>33.55969907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.99399512881944</v>
+        <v>34.47636574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.11899512881944</v>
+        <v>46.60136574077546</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.99399512881944</v>
+        <v>62.47636574077546</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.11899512881945</v>
+        <v>81.60136574077546</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>131.0773284621528</v>
+        <v>131.5596990741088</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.1189951288194</v>
+        <v>151.6013657407755</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.2023284621528</v>
+        <v>158.6846990741088</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.1606617954861</v>
+        <v>214.6430324074421</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.1189951288194</v>
+        <v>215.6013657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.1189951288194</v>
+        <v>222.6013657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.1606617954861</v>
+        <v>319.6430324074421</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>342.0356617954861</v>
+        <v>342.5180324074421</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>349.0356617954861</v>
+        <v>349.5180324074421</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.0773284621528</v>
+        <v>354.5596990741088</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.202328462152778</v>
+        <v>4.684699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.11899512881945</v>
+        <v>25.60136574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.20232846215278</v>
+        <v>25.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -17006,7 +17006,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -17315,7 +17315,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.03566179548611</v>
+        <v>39.51803240744213</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.20232846215278</v>
+        <v>39.68469907410879</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.20232846215278</v>
+        <v>46.68469907410879</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>60.20232846215278</v>
+        <v>60.68469907410879</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>74.11899512881945</v>
+        <v>74.60136574077546</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>81.20232846215278</v>
+        <v>81.68469907410879</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>106.0773284621528</v>
+        <v>106.5596990741088</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.2023284621528</v>
+        <v>109.6846990741088</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>110.9939951288194</v>
+        <v>111.4763657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.0356617954861</v>
+        <v>123.5180324074421</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.2023284621528</v>
+        <v>124.6846990741088</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>124.2023284621528</v>
+        <v>124.6846990741088</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>145.0773284621528</v>
+        <v>145.5596990741088</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>145.9939951288194</v>
+        <v>146.4763657407755</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>151.2023284621528</v>
+        <v>151.6846990741088</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>165.1606617954861</v>
+        <v>165.6430324074421</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.0773284621528</v>
+        <v>179.5596990741088</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>186.1606617954861</v>
+        <v>186.6430324074421</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>193.1606617954861</v>
+        <v>193.6430324074421</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>200.2439951288194</v>
+        <v>200.7263657407755</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>201.1189951288194</v>
+        <v>201.6013657407755</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>214.2439951288194</v>
+        <v>214.7263657407755</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>321.0356617954861</v>
+        <v>321.5180324074421</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.035661795486111</v>
+        <v>4.51803240744213</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -22636,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -22842,7 +22842,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -23048,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -23151,7 +23151,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.20232846215278</v>
+        <v>67.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -23254,7 +23254,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>68.99399512881945</v>
+        <v>69.47636574077546</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -23563,7 +23563,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -23769,7 +23769,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.2023284621528</v>
+        <v>130.6846990741088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>160.0356617954861</v>
+        <v>160.5180324074421</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -24284,7 +24284,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>181.0356617954861</v>
+        <v>181.5180324074421</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -24799,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -24902,7 +24902,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>228.1606617954861</v>
+        <v>228.6430324074421</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>228.2439951288194</v>
+        <v>228.7263657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -25623,7 +25623,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -25829,7 +25829,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>340.1606617954861</v>
+        <v>340.6430324074421</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>347.0773284621528</v>
+        <v>347.5596990741088</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>347.2439951288194</v>
+        <v>347.7263657407755</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.1606617954861</v>
+        <v>354.6430324074421</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>355.1189951288194</v>
+        <v>355.6013657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.07732846215278</v>
+        <v>19.5596990741088</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -26618,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.99399512881945</v>
+        <v>20.47636574077546</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -26824,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.07732846215278</v>
+        <v>26.55969907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -26927,7 +26927,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.20232846215278</v>
+        <v>32.68469907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -27133,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -27236,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -27339,7 +27339,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.07732846215278</v>
+        <v>82.55969907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>107.0773284621528</v>
+        <v>107.5596990741088</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -27648,7 +27648,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>131.9939951288194</v>
+        <v>132.4763657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -27854,7 +27854,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -27957,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.1189951288194</v>
+        <v>166.6013657407755</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -28163,7 +28163,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>188.0356617954861</v>
+        <v>188.5180324074421</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>230.0356617954861</v>
+        <v>230.5180324074421</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>319.2439951288194</v>
+        <v>319.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -28884,7 +28884,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.1189951288194</v>
+        <v>334.6013657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -28987,7 +28987,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -29090,7 +29090,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -29364,7 +29364,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -29467,7 +29467,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.11899512881944</v>
+        <v>32.60136574077546</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -29570,7 +29570,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.99399512881944</v>
+        <v>48.47636574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.11899512881944</v>
+        <v>53.60136574077546</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -29982,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -30085,7 +30085,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.07732846215278</v>
+        <v>61.55969907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -30394,7 +30394,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -30497,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -30600,7 +30600,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -30806,7 +30806,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -30909,7 +30909,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -31012,7 +31012,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -31115,7 +31115,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.2023284621528</v>
+        <v>123.6846990741088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -31218,7 +31218,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>125.0356617954861</v>
+        <v>125.5180324074421</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>144.1189951288194</v>
+        <v>144.6013657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -31424,7 +31424,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -31527,7 +31527,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -31630,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.1189951288194</v>
+        <v>180.6013657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -31733,7 +31733,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.2439951288194</v>
+        <v>186.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -31836,7 +31836,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.1189951288194</v>
+        <v>194.6013657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -31939,7 +31939,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -32042,7 +32042,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.2439951288194</v>
+        <v>221.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -32351,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -32454,7 +32454,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -32660,7 +32660,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -32763,7 +32763,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.1189951288194</v>
+        <v>341.6013657407755</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -32866,7 +32866,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -32969,7 +32969,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -33072,7 +33072,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -33175,7 +33175,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.2439951288194</v>
+        <v>354.7263657407755</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -33449,7 +33449,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -33552,7 +33552,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -33861,7 +33861,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>57.07732846215278</v>
+        <v>57.55969907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>106.9939951288194</v>
+        <v>107.4763657407755</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -34067,7 +34067,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.1189951288194</v>
+        <v>116.6013657407755</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34170,7 +34170,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.9939951288194</v>
+        <v>118.4763657407755</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -34273,7 +34273,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.1189951288194</v>
+        <v>130.6013657407755</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -34376,7 +34376,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -34479,7 +34479,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>152.9939951288194</v>
+        <v>153.4763657407755</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -34582,7 +34582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -34685,7 +34685,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>165.2439951288194</v>
+        <v>165.7263657407755</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34788,7 +34788,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.1606617954861</v>
+        <v>200.6430324074421</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34891,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34994,7 +34994,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35097,7 +35097,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>328.0356617954861</v>
+        <v>328.5180324074421</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>335.0356617954861</v>
+        <v>335.5180324074421</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -35612,7 +35612,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>356.0356617954861</v>
+        <v>356.5180324074421</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.20232846215278</v>
+        <v>18.6846990741088</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35989,7 +35989,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.07732846215278</v>
+        <v>33.55969907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36092,7 +36092,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -36195,7 +36195,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36298,7 +36298,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.99399512881944</v>
+        <v>34.47636574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -36401,7 +36401,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.11899512881944</v>
+        <v>46.60136574077546</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -36504,7 +36504,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36710,7 +36710,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -36813,7 +36813,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.99399512881944</v>
+        <v>62.47636574077546</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -37019,7 +37019,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37122,7 +37122,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37225,7 +37225,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.11899512881945</v>
+        <v>81.60136574077546</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -37328,7 +37328,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -37431,7 +37431,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -37534,7 +37534,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -37740,7 +37740,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>131.0773284621528</v>
+        <v>131.5596990741088</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -37843,7 +37843,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -37946,7 +37946,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.1189951288194</v>
+        <v>151.6013657407755</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38049,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.2023284621528</v>
+        <v>158.6846990741088</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -38152,7 +38152,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38358,7 +38358,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -38461,7 +38461,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -38564,7 +38564,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.1606617954861</v>
+        <v>214.6430324074421</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -38667,7 +38667,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.1189951288194</v>
+        <v>215.6013657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38770,7 +38770,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.1189951288194</v>
+        <v>222.6013657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -38873,7 +38873,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38976,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39079,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.1606617954861</v>
+        <v>319.6430324074421</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -39182,7 +39182,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -39285,7 +39285,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39388,7 +39388,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>342.0356617954861</v>
+        <v>342.5180324074421</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -39491,7 +39491,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>349.0356617954861</v>
+        <v>349.5180324074421</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.0773284621528</v>
+        <v>354.5596990741088</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -39868,7 +39868,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.07732846215278</v>
+        <v>19.5596990741088</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -39971,7 +39971,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -40074,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.99399512881945</v>
+        <v>20.47636574077546</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -40177,7 +40177,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.07732846215278</v>
+        <v>26.55969907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -40280,7 +40280,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.20232846215278</v>
+        <v>32.68469907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -40383,7 +40383,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -40486,7 +40486,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -40589,7 +40589,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -40692,7 +40692,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.07732846215278</v>
+        <v>82.55969907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -40795,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>107.0773284621528</v>
+        <v>107.5596990741088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -40898,7 +40898,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41001,7 +41001,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>131.9939951288194</v>
+        <v>132.4763657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -41104,7 +41104,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -41207,7 +41207,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -41310,7 +41310,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.1189951288194</v>
+        <v>166.6013657407755</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -41413,7 +41413,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -41516,7 +41516,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -41619,7 +41619,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -41722,7 +41722,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>188.0356617954861</v>
+        <v>188.5180324074421</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -41825,7 +41825,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -41928,7 +41928,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>230.0356617954861</v>
+        <v>230.5180324074421</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -42031,7 +42031,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>319.2439951288194</v>
+        <v>319.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.1189951288194</v>
+        <v>334.6013657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -42340,7 +42340,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -42443,7 +42443,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -42717,7 +42717,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.118995128819445</v>
+        <v>4.601365740775464</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -42820,7 +42820,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42923,7 +42923,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.11899512881945</v>
+        <v>18.60136574077546</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43026,7 +43026,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.03566179548611</v>
+        <v>25.51803240744213</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43129,7 +43129,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.11899512881944</v>
+        <v>39.60136574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -43232,7 +43232,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -43335,7 +43335,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.99399512881944</v>
+        <v>55.47636574077546</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43438,7 +43438,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>74.20232846215278</v>
+        <v>74.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43541,7 +43541,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43644,7 +43644,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>82.99399512881945</v>
+        <v>83.47636574077546</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43747,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -43850,7 +43850,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.1189951288194</v>
+        <v>109.6013657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -43953,7 +43953,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>110.0773284621528</v>
+        <v>110.5596990741088</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -44056,7 +44056,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>124.0773284621528</v>
+        <v>124.5596990741088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -44159,7 +44159,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>124.2023284621528</v>
+        <v>124.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -44262,7 +44262,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>143.9939951288194</v>
+        <v>144.4763657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44365,7 +44365,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -44468,7 +44468,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>158.1189951288194</v>
+        <v>158.6013657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44571,7 +44571,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.1189951288194</v>
+        <v>159.6013657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44674,7 +44674,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44777,7 +44777,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>167.0356617954861</v>
+        <v>167.5180324074421</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44880,7 +44880,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.1606617954861</v>
+        <v>179.6430324074421</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44983,7 +44983,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.2439951288194</v>
+        <v>179.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -45086,7 +45086,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45189,7 +45189,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.2439951288194</v>
+        <v>193.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -45292,7 +45292,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45395,7 +45395,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45498,7 +45498,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -45601,7 +45601,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.0356617954861</v>
+        <v>216.5180324074421</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -45704,7 +45704,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.1606617954861</v>
+        <v>221.6430324074421</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -45807,7 +45807,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>229.1189951288194</v>
+        <v>229.6013657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -45910,7 +45910,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46013,7 +46013,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.1606617954861</v>
+        <v>326.6430324074421</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -46116,7 +46116,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.1606617954861</v>
+        <v>333.6430324074421</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -46219,7 +46219,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.0356617954861</v>
+        <v>335.5180324074421</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -46322,7 +46322,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -46425,7 +46425,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.1189951288194</v>
+        <v>348.6013657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -46528,7 +46528,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -46631,7 +46631,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -46905,7 +46905,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.202328462152778</v>
+        <v>4.684699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -47008,7 +47008,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -47111,7 +47111,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -47214,7 +47214,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -47317,7 +47317,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.11899512881945</v>
+        <v>25.60136574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -47420,7 +47420,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.20232846215278</v>
+        <v>25.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -47626,7 +47626,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -47729,7 +47729,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -47832,7 +47832,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.03566179548611</v>
+        <v>39.51803240744213</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -47935,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.20232846215278</v>
+        <v>39.68469907410879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -48038,7 +48038,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -48141,7 +48141,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.20232846215278</v>
+        <v>46.68469907410879</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -48244,7 +48244,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -48347,7 +48347,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>60.20232846215278</v>
+        <v>60.68469907410879</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -48450,7 +48450,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -48553,7 +48553,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -48656,7 +48656,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>74.11899512881945</v>
+        <v>74.60136574077546</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -48759,7 +48759,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -48862,7 +48862,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -48965,7 +48965,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>81.20232846215278</v>
+        <v>81.68469907410879</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -49068,7 +49068,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -49171,7 +49171,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>106.0773284621528</v>
+        <v>106.5596990741088</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -49274,7 +49274,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.2023284621528</v>
+        <v>109.6846990741088</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>110.9939951288194</v>
+        <v>111.4763657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -49480,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -49583,7 +49583,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.0356617954861</v>
+        <v>123.5180324074421</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -49686,7 +49686,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.2023284621528</v>
+        <v>124.6846990741088</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -49789,7 +49789,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>124.2023284621528</v>
+        <v>124.6846990741088</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -49892,7 +49892,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -49995,7 +49995,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>145.0773284621528</v>
+        <v>145.5596990741088</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -50098,7 +50098,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -50201,7 +50201,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>145.9939951288194</v>
+        <v>146.4763657407755</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -50304,7 +50304,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>151.2023284621528</v>
+        <v>151.6846990741088</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -50407,7 +50407,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -50510,7 +50510,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -50613,7 +50613,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -50716,7 +50716,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>165.1606617954861</v>
+        <v>165.6430324074421</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -50819,7 +50819,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.0773284621528</v>
+        <v>179.5596990741088</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -50922,7 +50922,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>186.1606617954861</v>
+        <v>186.6430324074421</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -51025,7 +51025,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -51128,7 +51128,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>193.1606617954861</v>
+        <v>193.6430324074421</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -51231,7 +51231,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -51334,7 +51334,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>200.2439951288194</v>
+        <v>200.7263657407755</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -51437,7 +51437,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>201.1189951288194</v>
+        <v>201.6013657407755</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -51540,7 +51540,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>214.2439951288194</v>
+        <v>214.7263657407755</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -51643,7 +51643,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -51746,7 +51746,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -51849,7 +51849,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -51952,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -52055,7 +52055,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -52158,7 +52158,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -52261,7 +52261,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>321.0356617954861</v>
+        <v>321.5180324074421</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -52364,7 +52364,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -52467,7 +52467,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -52570,7 +52570,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -52673,7 +52673,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -52776,7 +52776,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -53050,7 +53050,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53153,7 +53153,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.11899512881944</v>
+        <v>32.60136574077546</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -53256,7 +53256,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -53359,7 +53359,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -53462,7 +53462,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>47.99399512881944</v>
+        <v>48.47636574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -53565,7 +53565,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.11899512881944</v>
+        <v>53.60136574077546</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -53668,7 +53668,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -53771,7 +53771,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.07732846215278</v>
+        <v>61.55969907410879</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -53977,7 +53977,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -54080,7 +54080,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.20232846215278</v>
+        <v>68.68469907410879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54183,7 +54183,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>75.20232846215278</v>
+        <v>75.68469907410879</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54286,7 +54286,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -54389,7 +54389,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -54492,7 +54492,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -54595,7 +54595,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -54698,7 +54698,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -54801,7 +54801,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.2023284621528</v>
+        <v>123.6846990741088</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -54904,7 +54904,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>125.0356617954861</v>
+        <v>125.5180324074421</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55007,7 +55007,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>144.1189951288194</v>
+        <v>144.6013657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55110,7 +55110,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -55213,7 +55213,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -55316,7 +55316,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.1189951288194</v>
+        <v>180.6013657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -55419,7 +55419,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.2439951288194</v>
+        <v>186.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -55522,7 +55522,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.1189951288194</v>
+        <v>194.6013657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -55625,7 +55625,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -55728,7 +55728,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -55831,7 +55831,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.2439951288194</v>
+        <v>221.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -55934,7 +55934,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56037,7 +56037,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56140,7 +56140,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56243,7 +56243,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56346,7 +56346,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -56449,7 +56449,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.1189951288194</v>
+        <v>341.6013657407755</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -56552,7 +56552,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -56655,7 +56655,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -56758,7 +56758,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.2439951288194</v>
+        <v>348.7263657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -56861,7 +56861,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.2439951288194</v>
+        <v>354.7263657407755</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57135,7 +57135,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -57238,7 +57238,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -57341,7 +57341,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.20232846215278</v>
+        <v>26.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57444,7 +57444,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.99399512881945</v>
+        <v>27.47636574077546</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57547,7 +57547,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>40.99399512881944</v>
+        <v>41.47636574077546</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -57650,7 +57650,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.07732846215278</v>
+        <v>47.55969907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57753,7 +57753,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.20232846215278</v>
+        <v>53.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -57856,7 +57856,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.11899512881944</v>
+        <v>60.60136574077546</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -57959,7 +57959,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.20232846215278</v>
+        <v>61.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -58062,7 +58062,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.11899512881945</v>
+        <v>67.60136574077546</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -58165,7 +58165,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.07732846215278</v>
+        <v>68.55969907410879</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58268,7 +58268,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.03566179548611</v>
+        <v>71.51803240744212</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58474,7 +58474,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>106.9939951288194</v>
+        <v>107.4763657407755</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58577,7 +58577,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -58680,7 +58680,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.2023284621528</v>
+        <v>144.6846990741088</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58783,7 +58783,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58886,7 +58886,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58989,7 +58989,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -59092,7 +59092,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -59195,7 +59195,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>195.0356617954861</v>
+        <v>195.5180324074421</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -59298,7 +59298,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59401,7 +59401,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59504,7 +59504,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59607,7 +59607,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -59710,7 +59710,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>319.0773284621528</v>
+        <v>319.5596990741088</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -59813,7 +59813,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>327.1189951288194</v>
+        <v>327.6013657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -59916,7 +59916,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -60019,7 +60019,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>340.2439951288194</v>
+        <v>340.7263657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -60122,7 +60122,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>341.2439951288194</v>
+        <v>341.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.035661795486111</v>
+        <v>4.51803240744213</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -60499,7 +60499,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.202328462152778</v>
+        <v>5.684699074108797</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -60602,7 +60602,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -60705,7 +60705,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -60808,7 +60808,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -60911,7 +60911,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.20232846215278</v>
+        <v>54.68469907410879</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -61014,7 +61014,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.20232846215278</v>
+        <v>67.68469907410879</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -61117,7 +61117,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>68.99399512881945</v>
+        <v>69.47636574077546</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -61220,7 +61220,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.20232846215278</v>
+        <v>82.68469907410879</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -61323,7 +61323,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>105.9939951288194</v>
+        <v>106.4763657407755</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -61426,7 +61426,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>110.2023284621528</v>
+        <v>110.6846990741088</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -61529,7 +61529,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -61632,7 +61632,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.2023284621528</v>
+        <v>117.6846990741088</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -61735,7 +61735,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.2023284621528</v>
+        <v>130.6846990741088</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -61838,7 +61838,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.2023284621528</v>
+        <v>131.6846990741088</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -61941,7 +61941,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.2023284621528</v>
+        <v>152.6846990741088</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -62044,7 +62044,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>160.0356617954861</v>
+        <v>160.5180324074421</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -62147,7 +62147,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>166.2439951288194</v>
+        <v>166.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -62250,7 +62250,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.2439951288194</v>
+        <v>180.7263657407755</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -62353,7 +62353,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>181.0356617954861</v>
+        <v>181.5180324074421</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -62456,7 +62456,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -62559,7 +62559,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>187.2439951288194</v>
+        <v>187.7263657407755</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -62662,7 +62662,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>194.2439951288194</v>
+        <v>194.7263657407755</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -62765,7 +62765,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>201.2439951288194</v>
+        <v>201.7263657407755</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -62868,7 +62868,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -62971,7 +62971,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>228.1606617954861</v>
+        <v>228.6430324074421</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -63074,7 +63074,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>228.2439951288194</v>
+        <v>228.7263657407755</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -63177,7 +63177,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>229.2439951288194</v>
+        <v>229.7263657407755</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -63280,7 +63280,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>313.2439951288194</v>
+        <v>313.7263657407755</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -63383,7 +63383,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>327.2439951288194</v>
+        <v>327.7263657407755</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -63486,7 +63486,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -63589,7 +63589,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>334.2439951288194</v>
+        <v>334.7263657407755</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -63692,7 +63692,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>340.1606617954861</v>
+        <v>340.6430324074421</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -63795,7 +63795,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>347.0773284621528</v>
+        <v>347.5596990741088</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -63898,7 +63898,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>347.2439951288194</v>
+        <v>347.7263657407755</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -64001,7 +64001,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.1606617954861</v>
+        <v>354.6430324074421</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -64104,7 +64104,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>355.1189951288194</v>
+        <v>355.6013657407755</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -64378,7 +64378,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.20232846215278</v>
+        <v>19.6846990741088</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -64481,7 +64481,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.20232846215278</v>
+        <v>33.68469907410879</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -64584,7 +64584,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.20232846215278</v>
+        <v>40.68469907410879</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -64687,7 +64687,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.20232846215278</v>
+        <v>47.68469907410879</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -64790,7 +64790,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>57.07732846215278</v>
+        <v>57.55969907410879</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -64893,7 +64893,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>106.9939951288194</v>
+        <v>107.4763657407755</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -64996,7 +64996,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.1189951288194</v>
+        <v>116.6013657407755</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -65099,7 +65099,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.9939951288194</v>
+        <v>118.4763657407755</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -65202,7 +65202,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.1189951288194</v>
+        <v>130.6013657407755</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -65305,7 +65305,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.2023284621528</v>
+        <v>145.6846990741088</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -65408,7 +65408,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>152.9939951288194</v>
+        <v>153.4763657407755</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -65511,7 +65511,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.2439951288194</v>
+        <v>159.7263657407755</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -65614,7 +65614,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>165.2439951288194</v>
+        <v>165.7263657407755</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -65717,7 +65717,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.1606617954861</v>
+        <v>200.6430324074421</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -65820,7 +65820,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>215.2439951288194</v>
+        <v>215.7263657407755</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -65923,7 +65923,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.2439951288194</v>
+        <v>222.7263657407755</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -66026,7 +66026,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -66129,7 +66129,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>320.2439951288194</v>
+        <v>320.7263657407755</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -66232,7 +66232,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>328.0356617954861</v>
+        <v>328.5180324074421</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -66335,7 +66335,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>335.0356617954861</v>
+        <v>335.5180324074421</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -66438,7 +66438,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.2439951288194</v>
+        <v>355.7263657407755</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -66541,7 +66541,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>356.0356617954861</v>
+        <v>356.5180324074421</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>

--- a/EDA_DF/Bundesliga_Rank_ML.xlsx
+++ b/EDA_DF/Bundesliga_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.559699074108797</v>
+        <v>5.667042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.55969907410879</v>
+        <v>40.66704219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>54.55969907410879</v>
+        <v>54.66704219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>75.55969907410879</v>
+        <v>75.66704219197916</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>109.5180324074421</v>
+        <v>109.6253755253125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.6846990741088</v>
+        <v>116.7920421919792</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.5596990741088</v>
+        <v>117.6670421919792</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.6013657407755</v>
+        <v>123.7087088586458</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>152.5596990741088</v>
+        <v>152.6670421919792</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>187.6013657407755</v>
+        <v>187.7087088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>202.5180324074421</v>
+        <v>202.6253755253125</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>223.5180324074421</v>
+        <v>223.6253755253125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>320.6013657407755</v>
+        <v>320.7087088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>326.7263657407755</v>
+        <v>326.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>347.6430324074421</v>
+        <v>347.7503755253125</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.559699074108797</v>
+        <v>5.667042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.55969907410879</v>
+        <v>40.66704219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>54.55969907410879</v>
+        <v>54.66704219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>75.55969907410879</v>
+        <v>75.66704219197916</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>109.5180324074421</v>
+        <v>109.6253755253125</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.6846990741088</v>
+        <v>116.7920421919792</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.5596990741088</v>
+        <v>117.6670421919792</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.6013657407755</v>
+        <v>123.7087088586458</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>152.5596990741088</v>
+        <v>152.6670421919792</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>187.6013657407755</v>
+        <v>187.7087088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>202.5180324074421</v>
+        <v>202.6253755253125</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>223.5180324074421</v>
+        <v>223.6253755253125</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>320.6013657407755</v>
+        <v>320.7087088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>326.7263657407755</v>
+        <v>326.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>347.6430324074421</v>
+        <v>347.7503755253125</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.601365740775464</v>
+        <v>4.708708858645833</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.60136574077546</v>
+        <v>18.70870885864583</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.51803240744213</v>
+        <v>25.6253755253125</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.60136574077546</v>
+        <v>39.70870885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>55.47636574077546</v>
+        <v>55.58370885864583</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>74.68469907410879</v>
+        <v>74.79204219197916</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>83.47636574077546</v>
+        <v>83.58370885864583</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.6013657407755</v>
+        <v>109.7087088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>110.5596990741088</v>
+        <v>110.6670421919792</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>124.5596990741088</v>
+        <v>124.6670421919792</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>124.6846990741088</v>
+        <v>124.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.4763657407755</v>
+        <v>144.5837088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>158.6013657407755</v>
+        <v>158.7087088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.6013657407755</v>
+        <v>159.7087088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>167.5180324074421</v>
+        <v>167.6253755253125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.6430324074421</v>
+        <v>179.7503755253125</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.7263657407755</v>
+        <v>179.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.7263657407755</v>
+        <v>193.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.5180324074421</v>
+        <v>216.6253755253125</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.6430324074421</v>
+        <v>221.7503755253125</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>229.6013657407755</v>
+        <v>229.7087088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.6430324074421</v>
+        <v>326.7503755253125</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.6430324074421</v>
+        <v>333.7503755253125</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.5180324074421</v>
+        <v>335.6253755253125</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.6013657407755</v>
+        <v>348.7087088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>27.47636574077546</v>
+        <v>27.58370885864583</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>41.47636574077546</v>
+        <v>41.58370885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -9660,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.55969907410879</v>
+        <v>47.66704219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.68469907410879</v>
+        <v>53.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.60136574077546</v>
+        <v>60.70870885864583</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.60136574077546</v>
+        <v>67.70870885864583</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.55969907410879</v>
+        <v>68.66704219197916</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.51803240744212</v>
+        <v>71.62537552531251</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>107.4763657407755</v>
+        <v>107.5837088586458</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.6846990741088</v>
+        <v>144.7920421919792</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>195.5180324074421</v>
+        <v>195.6253755253125</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>319.5596990741088</v>
+        <v>319.6670421919791</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>327.6013657407755</v>
+        <v>327.7087088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>340.7263657407755</v>
+        <v>340.8337088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -12406,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.6846990741088</v>
+        <v>18.79204219197917</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.55969907410879</v>
+        <v>33.66704219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>34.47636574077546</v>
+        <v>34.58370885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.60136574077546</v>
+        <v>46.70870885864583</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>62.47636574077546</v>
+        <v>62.58370885864583</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.60136574077546</v>
+        <v>81.70870885864583</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>131.5596990741088</v>
+        <v>131.6670421919792</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -14466,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.6013657407755</v>
+        <v>151.7087088586458</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.6846990741088</v>
+        <v>158.7920421919792</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.6430324074421</v>
+        <v>214.7503755253125</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.6013657407755</v>
+        <v>215.7087088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.6013657407755</v>
+        <v>222.7087088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.6430324074421</v>
+        <v>319.7503755253125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>342.5180324074421</v>
+        <v>342.6253755253125</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>349.5180324074421</v>
+        <v>349.6253755253125</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.5596990741088</v>
+        <v>354.6670421919791</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.684699074108797</v>
+        <v>4.792042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -16800,7 +16800,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.60136574077546</v>
+        <v>25.70870885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.68469907410879</v>
+        <v>25.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -17006,7 +17006,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -17315,7 +17315,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.51803240744213</v>
+        <v>39.6253755253125</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.68469907410879</v>
+        <v>39.79204219197917</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.68469907410879</v>
+        <v>46.79204219197917</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>60.68469907410879</v>
+        <v>60.79204219197917</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>74.60136574077546</v>
+        <v>74.70870885864583</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>81.68469907410879</v>
+        <v>81.79204219197916</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>106.5596990741088</v>
+        <v>106.6670421919792</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.6846990741088</v>
+        <v>109.7920421919792</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>111.4763657407755</v>
+        <v>111.5837088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.5180324074421</v>
+        <v>123.6253755253125</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.6846990741088</v>
+        <v>124.7920421919792</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>124.6846990741088</v>
+        <v>124.7920421919792</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>145.5596990741088</v>
+        <v>145.6670421919792</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>146.4763657407755</v>
+        <v>146.5837088586458</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>151.6846990741088</v>
+        <v>151.7920421919792</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>165.6430324074421</v>
+        <v>165.7503755253125</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.5596990741088</v>
+        <v>179.6670421919792</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>186.6430324074421</v>
+        <v>186.7503755253125</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>193.6430324074421</v>
+        <v>193.7503755253125</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>200.7263657407755</v>
+        <v>200.8337088586458</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>201.6013657407755</v>
+        <v>201.7087088586458</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>214.7263657407755</v>
+        <v>214.8337088586458</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -21435,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -21744,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>321.5180324074421</v>
+        <v>321.6253755253125</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.51803240744213</v>
+        <v>4.6253755253125</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -22636,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -22842,7 +22842,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -22945,7 +22945,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -23048,7 +23048,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -23151,7 +23151,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.68469907410879</v>
+        <v>67.79204219197916</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -23254,7 +23254,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>69.47636574077546</v>
+        <v>69.58370885864583</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -23563,7 +23563,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -23769,7 +23769,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.6846990741088</v>
+        <v>130.7920421919792</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -24078,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>160.5180324074421</v>
+        <v>160.6253755253125</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -24284,7 +24284,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>181.5180324074421</v>
+        <v>181.6253755253125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -24799,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -24902,7 +24902,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>228.6430324074421</v>
+        <v>228.7503755253125</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>228.7263657407755</v>
+        <v>228.8337088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -25623,7 +25623,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -25829,7 +25829,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>340.6430324074421</v>
+        <v>340.7503755253125</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>347.5596990741088</v>
+        <v>347.6670421919791</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>347.7263657407755</v>
+        <v>347.8337088586458</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -26138,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.6430324074421</v>
+        <v>354.7503755253125</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>355.6013657407755</v>
+        <v>355.7087088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -26515,7 +26515,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.5596990741088</v>
+        <v>19.66704219197917</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -26618,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>20.47636574077546</v>
+        <v>20.58370885864583</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -26824,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.55969907410879</v>
+        <v>26.66704219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -26927,7 +26927,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.68469907410879</v>
+        <v>32.79204219197917</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -27133,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -27236,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -27339,7 +27339,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.55969907410879</v>
+        <v>82.66704219197916</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>107.5596990741088</v>
+        <v>107.6670421919792</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -27648,7 +27648,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>132.4763657407755</v>
+        <v>132.5837088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -27854,7 +27854,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -27957,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.6013657407755</v>
+        <v>166.7087088586458</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -28163,7 +28163,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>188.5180324074421</v>
+        <v>188.6253755253125</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>230.5180324074421</v>
+        <v>230.6253755253125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>319.7263657407755</v>
+        <v>319.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -28884,7 +28884,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.6013657407755</v>
+        <v>334.7087088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -28987,7 +28987,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -29090,7 +29090,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -29364,7 +29364,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -29467,7 +29467,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.60136574077546</v>
+        <v>32.70870885864583</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -29570,7 +29570,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.47636574077546</v>
+        <v>48.58370885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.60136574077546</v>
+        <v>53.70870885864583</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -29982,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -30085,7 +30085,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.55969907410879</v>
+        <v>61.66704219197917</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -30394,7 +30394,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -30497,7 +30497,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -30600,7 +30600,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -30806,7 +30806,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -30909,7 +30909,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -31012,7 +31012,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -31115,7 +31115,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.6846990741088</v>
+        <v>123.7920421919792</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -31218,7 +31218,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>125.5180324074421</v>
+        <v>125.6253755253125</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>144.6013657407755</v>
+        <v>144.7087088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -31424,7 +31424,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -31527,7 +31527,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -31630,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.6013657407755</v>
+        <v>180.7087088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -31733,7 +31733,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.7263657407755</v>
+        <v>186.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -31836,7 +31836,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.6013657407755</v>
+        <v>194.7087088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -31939,7 +31939,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -32042,7 +32042,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.7263657407755</v>
+        <v>221.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -32351,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -32454,7 +32454,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -32660,7 +32660,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -32763,7 +32763,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.6013657407755</v>
+        <v>341.7087088586458</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -32866,7 +32866,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -32969,7 +32969,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -33072,7 +33072,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -33175,7 +33175,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.7263657407755</v>
+        <v>354.8337088586458</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -33449,7 +33449,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -33552,7 +33552,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -33861,7 +33861,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>57.55969907410879</v>
+        <v>57.66704219197917</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>107.4763657407755</v>
+        <v>107.5837088586458</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -34067,7 +34067,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.6013657407755</v>
+        <v>116.7087088586458</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34170,7 +34170,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>118.4763657407755</v>
+        <v>118.5837088586458</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -34273,7 +34273,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.6013657407755</v>
+        <v>130.7087088586458</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -34376,7 +34376,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -34479,7 +34479,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>153.4763657407755</v>
+        <v>153.5837088586458</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -34582,7 +34582,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -34685,7 +34685,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>165.7263657407755</v>
+        <v>165.8337088586458</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34788,7 +34788,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.6430324074421</v>
+        <v>200.7503755253125</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -34891,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34994,7 +34994,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -35097,7 +35097,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>328.5180324074421</v>
+        <v>328.6253755253125</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>335.5180324074421</v>
+        <v>335.6253755253125</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -35612,7 +35612,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>356.5180324074421</v>
+        <v>356.6253755253125</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.6846990741088</v>
+        <v>18.79204219197917</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -35989,7 +35989,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.55969907410879</v>
+        <v>33.66704219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36092,7 +36092,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -36195,7 +36195,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36298,7 +36298,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>34.47636574077546</v>
+        <v>34.58370885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -36401,7 +36401,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.60136574077546</v>
+        <v>46.70870885864583</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -36504,7 +36504,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -36710,7 +36710,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -36813,7 +36813,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>62.47636574077546</v>
+        <v>62.58370885864583</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -37019,7 +37019,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37122,7 +37122,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -37225,7 +37225,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.60136574077546</v>
+        <v>81.70870885864583</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -37328,7 +37328,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -37431,7 +37431,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -37534,7 +37534,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -37740,7 +37740,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>131.5596990741088</v>
+        <v>131.6670421919792</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -37843,7 +37843,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -37946,7 +37946,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.6013657407755</v>
+        <v>151.7087088586458</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38049,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>158.6846990741088</v>
+        <v>158.7920421919792</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -38152,7 +38152,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38358,7 +38358,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -38461,7 +38461,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -38564,7 +38564,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>214.6430324074421</v>
+        <v>214.7503755253125</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -38667,7 +38667,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.6013657407755</v>
+        <v>215.7087088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -38770,7 +38770,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.6013657407755</v>
+        <v>222.7087088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -38873,7 +38873,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -38976,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39079,7 +39079,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>319.6430324074421</v>
+        <v>319.7503755253125</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -39182,7 +39182,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -39285,7 +39285,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39388,7 +39388,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>342.5180324074421</v>
+        <v>342.6253755253125</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -39491,7 +39491,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>349.5180324074421</v>
+        <v>349.6253755253125</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>354.5596990741088</v>
+        <v>354.6670421919791</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -39868,7 +39868,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.5596990741088</v>
+        <v>19.66704219197917</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -39971,7 +39971,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -40074,7 +40074,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>20.47636574077546</v>
+        <v>20.58370885864583</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -40177,7 +40177,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.55969907410879</v>
+        <v>26.66704219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -40280,7 +40280,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.68469907410879</v>
+        <v>32.79204219197917</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -40383,7 +40383,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -40486,7 +40486,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -40589,7 +40589,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -40692,7 +40692,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.55969907410879</v>
+        <v>82.66704219197916</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -40795,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>107.5596990741088</v>
+        <v>107.6670421919792</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -40898,7 +40898,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -41001,7 +41001,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>132.4763657407755</v>
+        <v>132.5837088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -41104,7 +41104,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -41207,7 +41207,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -41310,7 +41310,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>166.6013657407755</v>
+        <v>166.7087088586458</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -41413,7 +41413,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -41516,7 +41516,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -41619,7 +41619,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -41722,7 +41722,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>188.5180324074421</v>
+        <v>188.6253755253125</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -41825,7 +41825,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -41928,7 +41928,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>230.5180324074421</v>
+        <v>230.6253755253125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -42031,7 +42031,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>319.7263657407755</v>
+        <v>319.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>334.6013657407755</v>
+        <v>334.7087088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -42340,7 +42340,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -42443,7 +42443,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -42717,7 +42717,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.601365740775464</v>
+        <v>4.708708858645833</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -42820,7 +42820,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42923,7 +42923,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>18.60136574077546</v>
+        <v>18.70870885864583</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43026,7 +43026,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.51803240744213</v>
+        <v>25.6253755253125</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -43129,7 +43129,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.60136574077546</v>
+        <v>39.70870885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -43232,7 +43232,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -43335,7 +43335,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>55.47636574077546</v>
+        <v>55.58370885864583</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -43438,7 +43438,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>74.68469907410879</v>
+        <v>74.79204219197916</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43541,7 +43541,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43644,7 +43644,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>83.47636574077546</v>
+        <v>83.58370885864583</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -43747,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -43850,7 +43850,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>109.6013657407755</v>
+        <v>109.7087088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -43953,7 +43953,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>110.5596990741088</v>
+        <v>110.6670421919792</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -44056,7 +44056,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>124.5596990741088</v>
+        <v>124.6670421919792</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -44159,7 +44159,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>124.6846990741088</v>
+        <v>124.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -44262,7 +44262,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.4763657407755</v>
+        <v>144.5837088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -44365,7 +44365,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -44468,7 +44468,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>158.6013657407755</v>
+        <v>158.7087088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -44571,7 +44571,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>159.6013657407755</v>
+        <v>159.7087088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -44674,7 +44674,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -44777,7 +44777,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>167.5180324074421</v>
+        <v>167.6253755253125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -44880,7 +44880,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>179.6430324074421</v>
+        <v>179.7503755253125</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -44983,7 +44983,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>179.7263657407755</v>
+        <v>179.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -45086,7 +45086,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -45189,7 +45189,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>193.7263657407755</v>
+        <v>193.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -45292,7 +45292,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -45395,7 +45395,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -45498,7 +45498,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -45601,7 +45601,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>216.5180324074421</v>
+        <v>216.6253755253125</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -45704,7 +45704,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>221.6430324074421</v>
+        <v>221.7503755253125</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -45807,7 +45807,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>229.6013657407755</v>
+        <v>229.7087088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -45910,7 +45910,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46013,7 +46013,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>326.6430324074421</v>
+        <v>326.7503755253125</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -46116,7 +46116,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>333.6430324074421</v>
+        <v>333.7503755253125</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -46219,7 +46219,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>335.5180324074421</v>
+        <v>335.6253755253125</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -46322,7 +46322,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -46425,7 +46425,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.6013657407755</v>
+        <v>348.7087088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -46528,7 +46528,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -46631,7 +46631,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -46905,7 +46905,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.684699074108797</v>
+        <v>4.792042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -47008,7 +47008,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -47111,7 +47111,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -47214,7 +47214,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -47317,7 +47317,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.60136574077546</v>
+        <v>25.70870885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -47420,7 +47420,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.68469907410879</v>
+        <v>25.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -47626,7 +47626,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -47729,7 +47729,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -47832,7 +47832,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>39.51803240744213</v>
+        <v>39.6253755253125</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -47935,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.68469907410879</v>
+        <v>39.79204219197917</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -48038,7 +48038,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -48141,7 +48141,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.68469907410879</v>
+        <v>46.79204219197917</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -48244,7 +48244,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -48347,7 +48347,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>60.68469907410879</v>
+        <v>60.79204219197917</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -48450,7 +48450,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -48553,7 +48553,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -48656,7 +48656,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>74.60136574077546</v>
+        <v>74.70870885864583</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -48759,7 +48759,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -48862,7 +48862,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -48965,7 +48965,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>81.68469907410879</v>
+        <v>81.79204219197916</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -49068,7 +49068,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -49171,7 +49171,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>106.5596990741088</v>
+        <v>106.6670421919792</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -49274,7 +49274,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>109.6846990741088</v>
+        <v>109.7920421919792</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -49377,7 +49377,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>111.4763657407755</v>
+        <v>111.5837088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -49480,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -49583,7 +49583,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>123.5180324074421</v>
+        <v>123.6253755253125</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -49686,7 +49686,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>124.6846990741088</v>
+        <v>124.7920421919792</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -49789,7 +49789,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>124.6846990741088</v>
+        <v>124.7920421919792</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -49892,7 +49892,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -49995,7 +49995,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>145.5596990741088</v>
+        <v>145.6670421919792</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -50098,7 +50098,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -50201,7 +50201,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>146.4763657407755</v>
+        <v>146.5837088586458</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -50304,7 +50304,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>151.6846990741088</v>
+        <v>151.7920421919792</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -50407,7 +50407,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -50510,7 +50510,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -50613,7 +50613,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -50716,7 +50716,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>165.6430324074421</v>
+        <v>165.7503755253125</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -50819,7 +50819,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>179.5596990741088</v>
+        <v>179.6670421919792</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -50922,7 +50922,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>186.6430324074421</v>
+        <v>186.7503755253125</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -51025,7 +51025,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -51128,7 +51128,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>193.6430324074421</v>
+        <v>193.7503755253125</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -51231,7 +51231,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -51334,7 +51334,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>200.7263657407755</v>
+        <v>200.8337088586458</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -51437,7 +51437,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>201.6013657407755</v>
+        <v>201.7087088586458</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -51540,7 +51540,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>214.7263657407755</v>
+        <v>214.8337088586458</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -51643,7 +51643,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -51746,7 +51746,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -51849,7 +51849,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -51952,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -52055,7 +52055,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -52158,7 +52158,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -52261,7 +52261,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>321.5180324074421</v>
+        <v>321.6253755253125</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -52364,7 +52364,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -52467,7 +52467,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -52570,7 +52570,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -52673,7 +52673,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -52776,7 +52776,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -53050,7 +53050,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53153,7 +53153,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.60136574077546</v>
+        <v>32.70870885864583</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -53256,7 +53256,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -53359,7 +53359,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -53462,7 +53462,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>48.47636574077546</v>
+        <v>48.58370885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -53565,7 +53565,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>53.60136574077546</v>
+        <v>53.70870885864583</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -53668,7 +53668,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -53771,7 +53771,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>61.55969907410879</v>
+        <v>61.66704219197917</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -53977,7 +53977,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -54080,7 +54080,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.68469907410879</v>
+        <v>68.79204219197916</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54183,7 +54183,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>75.68469907410879</v>
+        <v>75.79204219197916</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -54286,7 +54286,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -54389,7 +54389,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -54492,7 +54492,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -54595,7 +54595,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -54698,7 +54698,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -54801,7 +54801,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>123.6846990741088</v>
+        <v>123.7920421919792</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -54904,7 +54904,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>125.5180324074421</v>
+        <v>125.6253755253125</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -55007,7 +55007,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>144.6013657407755</v>
+        <v>144.7087088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55110,7 +55110,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -55213,7 +55213,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -55316,7 +55316,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>180.6013657407755</v>
+        <v>180.7087088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -55419,7 +55419,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>186.7263657407755</v>
+        <v>186.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -55522,7 +55522,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>194.6013657407755</v>
+        <v>194.7087088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -55625,7 +55625,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -55728,7 +55728,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -55831,7 +55831,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>221.7263657407755</v>
+        <v>221.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -55934,7 +55934,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -56037,7 +56037,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -56140,7 +56140,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -56243,7 +56243,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56346,7 +56346,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -56449,7 +56449,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>341.6013657407755</v>
+        <v>341.7087088586458</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -56552,7 +56552,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -56655,7 +56655,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -56758,7 +56758,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>348.7263657407755</v>
+        <v>348.8337088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -56861,7 +56861,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>354.7263657407755</v>
+        <v>354.8337088586458</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -57135,7 +57135,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -57238,7 +57238,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -57341,7 +57341,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.68469907410879</v>
+        <v>26.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -57444,7 +57444,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>27.47636574077546</v>
+        <v>27.58370885864583</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57547,7 +57547,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>41.47636574077546</v>
+        <v>41.58370885864583</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -57650,7 +57650,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.55969907410879</v>
+        <v>47.66704219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -57753,7 +57753,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.68469907410879</v>
+        <v>53.79204219197917</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -57856,7 +57856,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>60.60136574077546</v>
+        <v>60.70870885864583</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -57959,7 +57959,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>61.68469907410879</v>
+        <v>61.79204219197917</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -58062,7 +58062,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>67.60136574077546</v>
+        <v>67.70870885864583</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -58165,7 +58165,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>68.55969907410879</v>
+        <v>68.66704219197916</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -58268,7 +58268,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>71.51803240744212</v>
+        <v>71.62537552531251</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58371,7 +58371,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58474,7 +58474,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>107.4763657407755</v>
+        <v>107.5837088586458</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -58577,7 +58577,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -58680,7 +58680,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>144.6846990741088</v>
+        <v>144.7920421919792</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58783,7 +58783,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58886,7 +58886,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -58989,7 +58989,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -59092,7 +59092,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -59195,7 +59195,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>195.5180324074421</v>
+        <v>195.6253755253125</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -59298,7 +59298,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59401,7 +59401,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -59504,7 +59504,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59607,7 +59607,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -59710,7 +59710,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>319.5596990741088</v>
+        <v>319.6670421919791</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -59813,7 +59813,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>327.6013657407755</v>
+        <v>327.7087088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -59916,7 +59916,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -60019,7 +60019,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>340.7263657407755</v>
+        <v>340.8337088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -60122,7 +60122,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>341.7263657407755</v>
+        <v>341.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -60396,7 +60396,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.51803240744213</v>
+        <v>4.6253755253125</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -60499,7 +60499,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.684699074108797</v>
+        <v>5.792042191979166</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -60602,7 +60602,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -60705,7 +60705,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -60808,7 +60808,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -60911,7 +60911,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>54.68469907410879</v>
+        <v>54.79204219197917</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -61014,7 +61014,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>67.68469907410879</v>
+        <v>67.79204219197916</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -61117,7 +61117,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>69.47636574077546</v>
+        <v>69.58370885864583</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -61220,7 +61220,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>82.68469907410879</v>
+        <v>82.79204219197916</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -61323,7 +61323,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>106.4763657407755</v>
+        <v>106.5837088586458</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -61426,7 +61426,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>110.6846990741088</v>
+        <v>110.7920421919792</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -61529,7 +61529,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -61632,7 +61632,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>117.6846990741088</v>
+        <v>117.7920421919792</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -61735,7 +61735,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.6846990741088</v>
+        <v>130.7920421919792</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -61838,7 +61838,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>131.6846990741088</v>
+        <v>131.7920421919792</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -61941,7 +61941,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>152.6846990741088</v>
+        <v>152.7920421919792</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -62044,7 +62044,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>160.5180324074421</v>
+        <v>160.6253755253125</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -62147,7 +62147,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>166.7263657407755</v>
+        <v>166.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -62250,7 +62250,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>180.7263657407755</v>
+        <v>180.8337088586458</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -62353,7 +62353,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>181.5180324074421</v>
+        <v>181.6253755253125</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -62456,7 +62456,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -62559,7 +62559,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>187.7263657407755</v>
+        <v>187.8337088586458</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -62662,7 +62662,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>194.7263657407755</v>
+        <v>194.8337088586458</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -62765,7 +62765,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>201.7263657407755</v>
+        <v>201.8337088586458</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -62868,7 +62868,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -62971,7 +62971,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>228.6430324074421</v>
+        <v>228.7503755253125</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -63074,7 +63074,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>228.7263657407755</v>
+        <v>228.8337088586458</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -63177,7 +63177,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>229.7263657407755</v>
+        <v>229.8337088586458</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -63280,7 +63280,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>313.7263657407755</v>
+        <v>313.8337088586458</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -63383,7 +63383,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>327.7263657407755</v>
+        <v>327.8337088586458</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -63486,7 +63486,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -63589,7 +63589,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>334.7263657407755</v>
+        <v>334.8337088586458</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -63692,7 +63692,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>340.6430324074421</v>
+        <v>340.7503755253125</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -63795,7 +63795,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>347.5596990741088</v>
+        <v>347.6670421919791</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -63898,7 +63898,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>347.7263657407755</v>
+        <v>347.8337088586458</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -64001,7 +64001,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>354.6430324074421</v>
+        <v>354.7503755253125</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -64104,7 +64104,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>355.6013657407755</v>
+        <v>355.7087088586458</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -64378,7 +64378,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.6846990741088</v>
+        <v>19.79204219197917</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -64481,7 +64481,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>33.68469907410879</v>
+        <v>33.79204219197917</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -64584,7 +64584,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>40.68469907410879</v>
+        <v>40.79204219197917</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -64687,7 +64687,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.68469907410879</v>
+        <v>47.79204219197917</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -64790,7 +64790,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>57.55969907410879</v>
+        <v>57.66704219197917</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -64893,7 +64893,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>107.4763657407755</v>
+        <v>107.5837088586458</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -64996,7 +64996,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>116.6013657407755</v>
+        <v>116.7087088586458</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -65099,7 +65099,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>118.4763657407755</v>
+        <v>118.5837088586458</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -65202,7 +65202,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>130.6013657407755</v>
+        <v>130.7087088586458</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -65305,7 +65305,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>145.6846990741088</v>
+        <v>145.7920421919792</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -65408,7 +65408,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>153.4763657407755</v>
+        <v>153.5837088586458</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -65511,7 +65511,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>159.7263657407755</v>
+        <v>159.8337088586458</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -65614,7 +65614,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>165.7263657407755</v>
+        <v>165.8337088586458</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -65717,7 +65717,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>200.6430324074421</v>
+        <v>200.7503755253125</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -65820,7 +65820,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>215.7263657407755</v>
+        <v>215.8337088586458</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -65923,7 +65923,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>222.7263657407755</v>
+        <v>222.8337088586458</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -66026,7 +66026,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -66129,7 +66129,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>320.7263657407755</v>
+        <v>320.8337088586458</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -66232,7 +66232,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>328.5180324074421</v>
+        <v>328.6253755253125</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -66335,7 +66335,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>335.5180324074421</v>
+        <v>335.6253755253125</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -66438,7 +66438,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>355.7263657407755</v>
+        <v>355.8337088586458</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -66541,7 +66541,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>356.5180324074421</v>
+        <v>356.6253755253125</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
